--- a/Etablissement-2024-01-20.xlsx
+++ b/Etablissement-2024-01-20.xlsx
@@ -2232,8 +2232,8 @@
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B130"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>21</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>22</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
@@ -2444,7 +2444,7 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>25</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>26</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>27</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
@@ -2596,7 +2596,7 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>30</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>32</v>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
@@ -2786,7 +2786,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>34</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>36</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>37</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>38</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>40</v>
@@ -3052,7 +3052,7 @@
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>41</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>42</v>
@@ -3128,7 +3128,7 @@
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>43</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>44</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>45</v>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>46</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>47</v>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>48</v>
@@ -3356,7 +3356,7 @@
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>49</v>
@@ -3394,7 +3394,7 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>50</v>
@@ -3432,7 +3432,7 @@
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>51</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>52</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>527</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>53</v>
@@ -3584,7 +3584,7 @@
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>54</v>
@@ -3622,7 +3622,7 @@
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>55</v>
@@ -3660,7 +3660,7 @@
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>56</v>
@@ -3698,7 +3698,7 @@
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>57</v>
@@ -3736,7 +3736,7 @@
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>58</v>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>59</v>
@@ -3812,7 +3812,7 @@
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>60</v>
@@ -3850,7 +3850,7 @@
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>61</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>62</v>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>63</v>
@@ -3964,7 +3964,7 @@
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>64</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>65</v>
@@ -4040,7 +4040,7 @@
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>66</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>67</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>68</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>69</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>70</v>
@@ -4230,7 +4230,7 @@
     </row>
     <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>71</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>72</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>73</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>74</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>75</v>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>76</v>
@@ -4458,7 +4458,7 @@
     </row>
     <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>77</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>78</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>79</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>80</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>81</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>82</v>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>83</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>84</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>85</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>86</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>87</v>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>88</v>
@@ -4914,7 +4914,7 @@
     </row>
     <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>89</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>90</v>
@@ -4990,7 +4990,7 @@
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>91</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>92</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>93</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>94</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>95</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>96</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>97</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>98</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>99</v>
@@ -5332,7 +5332,7 @@
     </row>
     <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>100</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>101</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>102</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>103</v>
@@ -5484,7 +5484,7 @@
     </row>
     <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>104</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>105</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>106</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>107</v>
@@ -5636,7 +5636,7 @@
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>108</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>109</v>
@@ -5712,7 +5712,7 @@
     </row>
     <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>110</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>111</v>
@@ -5788,7 +5788,7 @@
     </row>
     <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>112</v>
@@ -5826,7 +5826,7 @@
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>113</v>
@@ -5864,7 +5864,7 @@
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>114</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>115</v>
@@ -5940,7 +5940,7 @@
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>116</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>117</v>
@@ -6016,7 +6016,7 @@
     </row>
     <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>118</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>119</v>
@@ -6092,7 +6092,7 @@
     </row>
     <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>120</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>121</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>122</v>
@@ -6206,7 +6206,7 @@
     </row>
     <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>123</v>
@@ -6244,7 +6244,7 @@
     </row>
     <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>124</v>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>537</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>539</v>
@@ -6360,7 +6360,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>542</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>554</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>556</v>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>558</v>
@@ -6516,7 +6516,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>540</v>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>543</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>544</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>545</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>547</v>
@@ -6711,7 +6711,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>550</v>
@@ -6750,7 +6750,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>551</v>
@@ -6789,7 +6789,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>557</v>
@@ -6828,7 +6828,7 @@
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>559</v>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>538</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>541</v>
@@ -6945,7 +6945,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>552</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>536</v>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>546</v>
@@ -7062,7 +7062,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>548</v>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>549</v>
@@ -7179,7 +7179,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>555</v>
